--- a/Code/Results/Cases/Case_2_167/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_167/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9261602450195028</v>
+        <v>0.5576086467745256</v>
       </c>
       <c r="C2">
-        <v>0.08627152529139792</v>
+        <v>0.1401259805752488</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0964572989686765</v>
+        <v>0.2158203427384855</v>
       </c>
       <c r="F2">
-        <v>1.059437643699653</v>
+        <v>2.101583851666291</v>
       </c>
       <c r="G2">
-        <v>0.000820617718550961</v>
+        <v>0.002480846746097597</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.429193603115344</v>
+        <v>1.030516627725682</v>
       </c>
       <c r="J2">
-        <v>0.07915526096580194</v>
+        <v>0.06832021374958686</v>
       </c>
       <c r="K2">
-        <v>0.7480357555978401</v>
+        <v>0.2810406009705275</v>
       </c>
       <c r="L2">
-        <v>0.2930806603033318</v>
+        <v>0.4458249572567325</v>
       </c>
       <c r="M2">
-        <v>0.2555728195812499</v>
+        <v>0.2357755197726483</v>
       </c>
       <c r="N2">
-        <v>0.992009104863175</v>
+        <v>2.090795578000424</v>
       </c>
       <c r="O2">
-        <v>1.709690586448758</v>
+        <v>3.870837430261133</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8071165414657742</v>
+        <v>0.524764461952401</v>
       </c>
       <c r="C3">
-        <v>0.08417751869516366</v>
+        <v>0.1394233556882121</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09210957566994438</v>
+        <v>0.2156799295414693</v>
       </c>
       <c r="F3">
-        <v>1.018300059500369</v>
+        <v>2.103628181986785</v>
       </c>
       <c r="G3">
-        <v>0.0008238043501494569</v>
+        <v>0.002482973314430057</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4339274728405691</v>
+        <v>1.037747933989987</v>
       </c>
       <c r="J3">
-        <v>0.07393691699642702</v>
+        <v>0.06647462156653106</v>
       </c>
       <c r="K3">
-        <v>0.6506080013287203</v>
+        <v>0.2522360085775546</v>
       </c>
       <c r="L3">
-        <v>0.2669965682808026</v>
+        <v>0.4409351929450196</v>
       </c>
       <c r="M3">
-        <v>0.2253456426169933</v>
+        <v>0.2282478055067294</v>
       </c>
       <c r="N3">
-        <v>1.033957471923277</v>
+        <v>2.109299138222191</v>
       </c>
       <c r="O3">
-        <v>1.707324032455119</v>
+        <v>3.894317930062471</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7342316510152784</v>
+        <v>0.5047659655288896</v>
       </c>
       <c r="C4">
-        <v>0.08289408993067937</v>
+        <v>0.1389879205728768</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08952592960917727</v>
+        <v>0.215661839952233</v>
       </c>
       <c r="F4">
-        <v>0.9945099649659781</v>
+        <v>2.105797412865122</v>
       </c>
       <c r="G4">
-        <v>0.000825828705424525</v>
+        <v>0.002484349641552898</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.437498949783901</v>
+        <v>1.042590932208917</v>
       </c>
       <c r="J4">
-        <v>0.07071997021419563</v>
+        <v>0.06532875163213703</v>
       </c>
       <c r="K4">
-        <v>0.5908394262064576</v>
+        <v>0.2345743598783798</v>
       </c>
       <c r="L4">
-        <v>0.2512030173278959</v>
+        <v>0.4381004256602097</v>
       </c>
       <c r="M4">
-        <v>0.2068990696193254</v>
+        <v>0.2237133670508449</v>
       </c>
       <c r="N4">
-        <v>1.060776719989347</v>
+        <v>2.121242743642517</v>
       </c>
       <c r="O4">
-        <v>1.708716934862721</v>
+        <v>3.91039846181512</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.704574148035789</v>
+        <v>0.496659307014653</v>
       </c>
       <c r="C5">
-        <v>0.08237143047679041</v>
+        <v>0.1388094739337262</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08849399270927094</v>
+        <v>0.2156716530205323</v>
       </c>
       <c r="F5">
-        <v>0.9851701221044991</v>
+        <v>2.106911599114866</v>
       </c>
       <c r="G5">
-        <v>0.0008266709235721613</v>
+        <v>0.00248492831153518</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4391166375071442</v>
+        <v>1.044665907256444</v>
       </c>
       <c r="J5">
-        <v>0.06940558569716515</v>
+        <v>0.06485863060783004</v>
       </c>
       <c r="K5">
-        <v>0.5664894400016891</v>
+        <v>0.2273837102862615</v>
       </c>
       <c r="L5">
-        <v>0.2448198666719321</v>
+        <v>0.4369875523157702</v>
       </c>
       <c r="M5">
-        <v>0.1994077628005506</v>
+        <v>0.221887753753137</v>
       </c>
       <c r="N5">
-        <v>1.07196805429265</v>
+        <v>2.126256364782337</v>
       </c>
       <c r="O5">
-        <v>1.709975619133616</v>
+        <v>3.917370019741384</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6996519340143834</v>
+        <v>0.4953158123266519</v>
       </c>
       <c r="C6">
-        <v>0.08228465788199912</v>
+        <v>0.1387797826359574</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08832388471535069</v>
+        <v>0.2156743219814317</v>
       </c>
       <c r="F6">
-        <v>0.9836402668929907</v>
+        <v>2.107110523807918</v>
       </c>
       <c r="G6">
-        <v>0.0008268118235658511</v>
+        <v>0.002485025476326727</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4393949152788927</v>
+        <v>1.045016583076638</v>
       </c>
       <c r="J6">
-        <v>0.06918711841053593</v>
+        <v>0.06478037639372403</v>
       </c>
       <c r="K6">
-        <v>0.5624463199933984</v>
+        <v>0.2261901214485675</v>
       </c>
       <c r="L6">
-        <v>0.2437630556123054</v>
+        <v>0.4368053217295511</v>
       </c>
       <c r="M6">
-        <v>0.1981653229062097</v>
+        <v>0.2215859585293423</v>
       </c>
       <c r="N6">
-        <v>1.073842066181481</v>
+        <v>2.127097723375996</v>
       </c>
       <c r="O6">
-        <v>1.710225662849751</v>
+        <v>3.918552934485419</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7338315139048461</v>
+        <v>0.5046564617648244</v>
       </c>
       <c r="C7">
-        <v>0.082887040045037</v>
+        <v>0.1389855180318023</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0895119287133781</v>
+        <v>0.2156619026422355</v>
       </c>
       <c r="F7">
-        <v>0.9943825866179949</v>
+        <v>2.105811506575058</v>
       </c>
       <c r="G7">
-        <v>0.0008258399935152289</v>
+        <v>0.00248435737354657</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.437520115739968</v>
+        <v>1.042618505307754</v>
       </c>
       <c r="J7">
-        <v>0.07070225822673493</v>
+        <v>0.06532242422886014</v>
       </c>
       <c r="K7">
-        <v>0.590511017681365</v>
+        <v>0.234477356869732</v>
       </c>
       <c r="L7">
-        <v>0.2511167218342933</v>
+        <v>0.4380852454793569</v>
       </c>
       <c r="M7">
-        <v>0.2067979380337484</v>
+        <v>0.2236886560402311</v>
       </c>
       <c r="N7">
-        <v>1.060926594709375</v>
+        <v>2.121309765804188</v>
       </c>
       <c r="O7">
-        <v>1.70873114351842</v>
+        <v>3.910490787303502</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8850652900466116</v>
+        <v>0.5462494924468331</v>
       </c>
       <c r="C8">
-        <v>0.08554889036808788</v>
+        <v>0.1398845544080238</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09493996525320014</v>
+        <v>0.2157578211045568</v>
       </c>
       <c r="F8">
-        <v>1.044939697183352</v>
+        <v>2.102099255172988</v>
       </c>
       <c r="G8">
-        <v>0.0008217025553799634</v>
+        <v>0.002481565363662961</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.430684834217459</v>
+        <v>1.032926404222721</v>
       </c>
       <c r="J8">
-        <v>0.07735851018770035</v>
+        <v>0.06768649212877165</v>
       </c>
       <c r="K8">
-        <v>0.7144274225970264</v>
+        <v>0.2711039610790351</v>
       </c>
       <c r="L8">
-        <v>0.2840388823332205</v>
+        <v>0.4441042941278255</v>
       </c>
       <c r="M8">
-        <v>0.245125414113545</v>
+        <v>0.2331618843857406</v>
       </c>
       <c r="N8">
-        <v>1.006249270412443</v>
+        <v>2.097054783464357</v>
       </c>
       <c r="O8">
-        <v>1.708268785463588</v>
+        <v>3.878588463447329</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.183718190876846</v>
+        <v>0.6291215714020382</v>
       </c>
       <c r="C9">
-        <v>0.0907984845893921</v>
+        <v>0.1416153998231309</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1062980672675629</v>
+        <v>0.2164842427352234</v>
       </c>
       <c r="F9">
-        <v>1.15642282025884</v>
+        <v>2.10205720785693</v>
       </c>
       <c r="G9">
-        <v>0.0008141152026777781</v>
+        <v>0.002476648124384232</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4227876481515445</v>
+        <v>1.017113571594287</v>
       </c>
       <c r="J9">
-        <v>0.09032016851056568</v>
+        <v>0.07222138362499209</v>
       </c>
       <c r="K9">
-        <v>0.958188941819003</v>
+        <v>0.3431062973053258</v>
       </c>
       <c r="L9">
-        <v>0.3505082654795473</v>
+        <v>0.4572302069445158</v>
       </c>
       <c r="M9">
-        <v>0.3213096239357185</v>
+        <v>0.2524272946668447</v>
       </c>
       <c r="N9">
-        <v>0.9076913192143685</v>
+        <v>2.054107661792014</v>
       </c>
       <c r="O9">
-        <v>1.731107746710336</v>
+        <v>3.829213029403292</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.405061378945561</v>
+        <v>0.6907787100357439</v>
       </c>
       <c r="C10">
-        <v>0.09469112350878817</v>
+        <v>0.1428672103891699</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1151259193238339</v>
+        <v>0.2173433965643206</v>
       </c>
       <c r="F10">
-        <v>1.246864643031458</v>
+        <v>2.106421786848244</v>
       </c>
       <c r="G10">
-        <v>0.0008088448134278461</v>
+        <v>0.002473372252285889</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4206801188393108</v>
+        <v>1.007437576894006</v>
       </c>
       <c r="J10">
-        <v>0.09980395996465319</v>
+        <v>0.07549115100110271</v>
       </c>
       <c r="K10">
-        <v>1.138270268665963</v>
+        <v>0.3960975559208464</v>
       </c>
       <c r="L10">
-        <v>0.4007251880565263</v>
+        <v>0.4676720957807561</v>
       </c>
       <c r="M10">
-        <v>0.378098178826491</v>
+        <v>0.266993893269003</v>
       </c>
       <c r="N10">
-        <v>0.8408955913572367</v>
+        <v>2.025362697930817</v>
       </c>
       <c r="O10">
-        <v>1.764067285352894</v>
+        <v>3.800958330527322</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.506328818272522</v>
+        <v>0.7189903017925587</v>
       </c>
       <c r="C11">
-        <v>0.09647408938825208</v>
+        <v>0.1434323409223381</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1192580433651571</v>
+        <v>0.217804354553369</v>
       </c>
       <c r="F11">
-        <v>1.290099656436311</v>
+        <v>2.109358397503613</v>
       </c>
       <c r="G11">
-        <v>0.0008065093287251367</v>
+        <v>0.002471954414296605</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.420602696506041</v>
+        <v>1.003456289743909</v>
       </c>
       <c r="J11">
-        <v>0.1041137267948145</v>
+        <v>0.07696510957072888</v>
       </c>
       <c r="K11">
-        <v>1.220534128517897</v>
+        <v>0.4202210982752206</v>
       </c>
       <c r="L11">
-        <v>0.4239215391631461</v>
+        <v>0.4725941069750519</v>
       </c>
       <c r="M11">
-        <v>0.4041553284285726</v>
+        <v>0.273708670113848</v>
       </c>
       <c r="N11">
-        <v>0.8118057226561399</v>
+        <v>2.012894329930683</v>
       </c>
       <c r="O11">
-        <v>1.782975248762455</v>
+        <v>3.789842994889682</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.544772520782629</v>
+        <v>0.7296962156747497</v>
       </c>
       <c r="C12">
-        <v>0.09715139475240875</v>
+        <v>0.1436457131749904</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1208404611004816</v>
+        <v>0.2179889397021881</v>
       </c>
       <c r="F12">
-        <v>1.306793369300038</v>
+        <v>2.110606856182173</v>
       </c>
       <c r="G12">
-        <v>0.0008056335320419094</v>
+        <v>0.002471427870641427</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.420707129749978</v>
+        <v>1.0020090469853</v>
       </c>
       <c r="J12">
-        <v>0.1057453974552658</v>
+        <v>0.07752130797511825</v>
       </c>
       <c r="K12">
-        <v>1.251745577748693</v>
+        <v>0.4293581789051473</v>
       </c>
       <c r="L12">
-        <v>0.4327605042569758</v>
+        <v>0.4744825042968301</v>
       </c>
       <c r="M12">
-        <v>0.4140585758369113</v>
+        <v>0.2762639273348313</v>
       </c>
       <c r="N12">
-        <v>0.8009835615813827</v>
+        <v>2.008260227103541</v>
       </c>
       <c r="O12">
-        <v>1.790733637234752</v>
+        <v>3.785883526621092</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.536488500722641</v>
+        <v>0.7273895029633763</v>
       </c>
       <c r="C13">
-        <v>0.09700542350954322</v>
+        <v>0.1435997878167754</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1204988574566528</v>
+        <v>0.2179487407360661</v>
       </c>
       <c r="F13">
-        <v>1.303183436414983</v>
+        <v>2.110331916101785</v>
       </c>
       <c r="G13">
-        <v>0.0008058217732590918</v>
+        <v>0.002471540811248304</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4206785732011333</v>
+        <v>1.002318052026407</v>
       </c>
       <c r="J13">
-        <v>0.10539399841673</v>
+        <v>0.07740160808793206</v>
       </c>
       <c r="K13">
-        <v>1.245020794994701</v>
+        <v>0.4273902633782711</v>
       </c>
       <c r="L13">
-        <v>0.4308543565373242</v>
+        <v>0.4740747157662923</v>
       </c>
       <c r="M13">
-        <v>0.411924071461911</v>
+        <v>0.2757130532865304</v>
       </c>
       <c r="N13">
-        <v>0.8033055805636433</v>
+        <v>2.009254377196978</v>
       </c>
       <c r="O13">
-        <v>1.78903552935293</v>
+        <v>3.786725168640913</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.509489605412369</v>
+        <v>0.7198706309526983</v>
       </c>
       <c r="C14">
-        <v>0.09652976660644441</v>
+        <v>0.1434499078697868</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1193878700176896</v>
+        <v>0.217819339767491</v>
       </c>
       <c r="F14">
-        <v>1.291466491191073</v>
+        <v>2.10945837671035</v>
       </c>
       <c r="G14">
-        <v>0.0008064371058258373</v>
+        <v>0.002471910887893777</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4206085659833647</v>
+        <v>1.003336014389124</v>
       </c>
       <c r="J14">
-        <v>0.104247970472251</v>
+        <v>0.07701090769903374</v>
       </c>
       <c r="K14">
-        <v>1.223100650088526</v>
+        <v>0.4209727738363824</v>
       </c>
       <c r="L14">
-        <v>0.4246475978877129</v>
+        <v>0.4727489758419807</v>
       </c>
       <c r="M14">
-        <v>0.4049693310401139</v>
+        <v>0.2739186428870397</v>
       </c>
       <c r="N14">
-        <v>0.8109114553279024</v>
+        <v>2.012511327985114</v>
       </c>
       <c r="O14">
-        <v>1.783601333219224</v>
+        <v>3.7895122446767</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.492964891944382</v>
+        <v>0.7152680524962705</v>
       </c>
       <c r="C15">
-        <v>0.09623870298981529</v>
+        <v>0.143358019722271</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1187096886622214</v>
+        <v>0.2177413826004795</v>
       </c>
       <c r="F15">
-        <v>1.284332033284727</v>
+        <v>2.108941065302432</v>
       </c>
       <c r="G15">
-        <v>0.0008068151251691093</v>
+        <v>0.002472138918436828</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4205833185413717</v>
+        <v>1.003967407633152</v>
       </c>
       <c r="J15">
-        <v>0.103545959467553</v>
+        <v>0.0767713368792613</v>
       </c>
       <c r="K15">
-        <v>1.209682053044901</v>
+        <v>0.4170421240765165</v>
       </c>
       <c r="L15">
-        <v>0.4208530760823805</v>
+        <v>0.4719401119484274</v>
       </c>
       <c r="M15">
-        <v>0.4007141529373754</v>
+        <v>0.2728211391750435</v>
       </c>
       <c r="N15">
-        <v>0.8155956990038176</v>
+        <v>2.014517685812045</v>
       </c>
       <c r="O15">
-        <v>1.780351744244285</v>
+        <v>3.791251916409379</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.398456014230788</v>
+        <v>0.6889382447231753</v>
       </c>
       <c r="C16">
-        <v>0.09457487962744437</v>
+        <v>0.1428301900272402</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1148582953132831</v>
+        <v>0.2173146783908457</v>
       </c>
       <c r="F16">
-        <v>1.244082977718634</v>
+        <v>2.106248982360114</v>
       </c>
       <c r="G16">
-        <v>0.0008089986643138469</v>
+        <v>0.002473466363575595</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4207035032818602</v>
+        <v>1.007706216788304</v>
       </c>
       <c r="J16">
-        <v>0.09952224186017133</v>
+        <v>0.07539455148375396</v>
       </c>
       <c r="K16">
-        <v>1.132901930302154</v>
+        <v>0.3945213357115165</v>
       </c>
       <c r="L16">
-        <v>0.3992167079642286</v>
+        <v>0.4673538747579187</v>
       </c>
       <c r="M16">
-        <v>0.3764001041740173</v>
+        <v>0.2665568286640294</v>
       </c>
       <c r="N16">
-        <v>0.8428233641889156</v>
+        <v>2.02618976571638</v>
       </c>
       <c r="O16">
-        <v>1.762913356239125</v>
+        <v>3.801719694082891</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.340634656192151</v>
+        <v>0.6728271206287957</v>
       </c>
       <c r="C17">
-        <v>0.0935575604169685</v>
+        <v>0.1425052699118439</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1125260338295426</v>
+        <v>0.2170708317225056</v>
       </c>
       <c r="F17">
-        <v>1.219941746906429</v>
+        <v>2.104840841619904</v>
       </c>
       <c r="G17">
-        <v>0.0008103538622557222</v>
+        <v>0.002474299211515207</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4210078201465244</v>
+        <v>1.010107476219396</v>
       </c>
       <c r="J17">
-        <v>0.09705288584075333</v>
+        <v>0.07454647277822346</v>
       </c>
       <c r="K17">
-        <v>1.085895119711068</v>
+        <v>0.3807096977678555</v>
       </c>
       <c r="L17">
-        <v>0.3860367610565447</v>
+        <v>0.4645842728560439</v>
       </c>
       <c r="M17">
-        <v>0.3615441553608392</v>
+        <v>0.2627363733977859</v>
       </c>
       <c r="N17">
-        <v>0.8598635414993669</v>
+        <v>2.033505886874179</v>
       </c>
       <c r="O17">
-        <v>1.753242611800033</v>
+        <v>3.808586278846775</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.307430857325414</v>
+        <v>0.6635758551883839</v>
       </c>
       <c r="C18">
-        <v>0.09297354733764962</v>
+        <v>0.1423179779334376</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1111954644928446</v>
+        <v>0.2169371812242709</v>
       </c>
       <c r="F18">
-        <v>1.206252005479257</v>
+        <v>2.104120462954995</v>
       </c>
       <c r="G18">
-        <v>0.0008111391961643788</v>
+        <v>0.002474785058267035</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4212653630140828</v>
+        <v>1.011528188316152</v>
       </c>
       <c r="J18">
-        <v>0.09563213935268777</v>
+        <v>0.07405741321568371</v>
       </c>
       <c r="K18">
-        <v>1.058889753462324</v>
+        <v>0.3727672913364302</v>
       </c>
       <c r="L18">
-        <v>0.3784889010978105</v>
+        <v>0.4630074664230932</v>
       </c>
       <c r="M18">
-        <v>0.3530202257213162</v>
+        <v>0.2605472765564798</v>
       </c>
       <c r="N18">
-        <v>0.8697861159540228</v>
+        <v>2.037771141489469</v>
       </c>
       <c r="O18">
-        <v>1.748046458521515</v>
+        <v>3.81269934721962</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.296197433831082</v>
+        <v>0.6604462068303292</v>
       </c>
       <c r="C19">
-        <v>0.09277599214191667</v>
+        <v>0.1422544945297872</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1107467981520394</v>
+        <v>0.216893065275606</v>
       </c>
       <c r="F19">
-        <v>1.201649889326447</v>
+        <v>2.103891945341985</v>
       </c>
       <c r="G19">
-        <v>0.0008114061126491857</v>
+        <v>0.002474950729688373</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4213665262677893</v>
+        <v>1.012016015384919</v>
       </c>
       <c r="J19">
-        <v>0.09515101495858147</v>
+        <v>0.07389160902829417</v>
       </c>
       <c r="K19">
-        <v>1.049751339538886</v>
+        <v>0.3700784333379943</v>
       </c>
       <c r="L19">
-        <v>0.3759388477201782</v>
+        <v>0.462476374108121</v>
       </c>
       <c r="M19">
-        <v>0.3501376336116806</v>
+        <v>0.259807522068968</v>
       </c>
       <c r="N19">
-        <v>0.8731663870081503</v>
+        <v>2.039225110597546</v>
       </c>
       <c r="O19">
-        <v>1.746348981124157</v>
+        <v>3.81412006549823</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.346784208909781</v>
+        <v>0.6745405857776348</v>
       </c>
       <c r="C20">
-        <v>0.09366573699453795</v>
+        <v>0.1425399003478987</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.112773173699896</v>
+        <v>0.2170961065506098</v>
       </c>
       <c r="F20">
-        <v>1.222491226873359</v>
+        <v>2.104981475361413</v>
       </c>
       <c r="G20">
-        <v>0.0008102089949770974</v>
+        <v>0.002474209848459994</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4209668363240873</v>
+        <v>1.009847763053457</v>
       </c>
       <c r="J20">
-        <v>0.09731579626026132</v>
+        <v>0.07463688349090347</v>
       </c>
       <c r="K20">
-        <v>1.090895719877835</v>
+        <v>0.3821797997415786</v>
       </c>
       <c r="L20">
-        <v>0.3874363536505143</v>
+        <v>0.4648774269038114</v>
       </c>
       <c r="M20">
-        <v>0.3631234150448392</v>
+        <v>0.263142206835596</v>
       </c>
       <c r="N20">
-        <v>0.8580369583749201</v>
+        <v>2.03272115182001</v>
       </c>
       <c r="O20">
-        <v>1.754233928556346</v>
+        <v>3.807838389885262</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.517417125010525</v>
+        <v>0.722078492875994</v>
       </c>
       <c r="C21">
-        <v>0.09666941740732682</v>
+        <v>0.1434939484211739</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1197137065072269</v>
+        <v>0.217857076173658</v>
       </c>
       <c r="F21">
-        <v>1.294899144508861</v>
+        <v>2.109711256543164</v>
       </c>
       <c r="G21">
-        <v>0.0008062561370678734</v>
+        <v>0.002471801906518887</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4206254407585881</v>
+        <v>1.003035375868784</v>
       </c>
       <c r="J21">
-        <v>0.1045845935684895</v>
+        <v>0.0771257191662329</v>
       </c>
       <c r="K21">
-        <v>1.229537415152123</v>
+        <v>0.4228576953205163</v>
       </c>
       <c r="L21">
-        <v>0.4264691445420823</v>
+        <v>0.4731377133161487</v>
       </c>
       <c r="M21">
-        <v>0.4070110991961187</v>
+        <v>0.274445366517611</v>
       </c>
       <c r="N21">
-        <v>0.8086721133766765</v>
+        <v>2.011552310727732</v>
       </c>
       <c r="O21">
-        <v>1.785180955698053</v>
+        <v>3.788686838836725</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.629501321451528</v>
+        <v>0.753279809234698</v>
       </c>
       <c r="C22">
-        <v>0.09864514290494952</v>
+        <v>0.1441137954980505</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1243532322966807</v>
+        <v>0.218412853636206</v>
       </c>
       <c r="F22">
-        <v>1.34410664288616</v>
+        <v>2.113597487795673</v>
       </c>
       <c r="G22">
-        <v>0.0008037226861745256</v>
+        <v>0.002470288546484109</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4211854935480162</v>
+        <v>0.9989350230758944</v>
       </c>
       <c r="J22">
-        <v>0.1093333137817112</v>
+        <v>0.0787408966502241</v>
       </c>
       <c r="K22">
-        <v>1.320502362734402</v>
+        <v>0.4494545832162089</v>
       </c>
       <c r="L22">
-        <v>0.4523021767595452</v>
+        <v>0.4786792303147678</v>
       </c>
       <c r="M22">
-        <v>0.4359058409419774</v>
+        <v>0.281905505438516</v>
       </c>
       <c r="N22">
-        <v>0.777541093113995</v>
+        <v>1.99822666534058</v>
       </c>
       <c r="O22">
-        <v>1.808912355324964</v>
+        <v>3.777625341164565</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.569623620405963</v>
+        <v>0.7366151853966585</v>
       </c>
       <c r="C23">
-        <v>0.09758936823666176</v>
+        <v>0.1437833108486188</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1218672329750952</v>
+        <v>0.2181108951600805</v>
       </c>
       <c r="F23">
-        <v>1.317664071762451</v>
+        <v>2.111450700512052</v>
       </c>
       <c r="G23">
-        <v>0.0008050703748572717</v>
+        <v>0.002471090746758872</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4208124901442645</v>
+        <v>1.001091277621988</v>
       </c>
       <c r="J23">
-        <v>0.1067989004361181</v>
+        <v>0.07787989767514603</v>
       </c>
       <c r="K23">
-        <v>1.271916569537098</v>
+        <v>0.4352584355517308</v>
       </c>
       <c r="L23">
-        <v>0.4384835590899456</v>
+        <v>0.4757086009489058</v>
       </c>
       <c r="M23">
-        <v>0.4204634930330897</v>
+        <v>0.2779172836661559</v>
       </c>
       <c r="N23">
-        <v>0.7940502558286697</v>
+        <v>2.005292204770345</v>
       </c>
       <c r="O23">
-        <v>1.795913388304115</v>
+        <v>3.783396002077012</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.344003877265692</v>
+        <v>0.6737658931359078</v>
       </c>
       <c r="C24">
-        <v>0.09361682772224356</v>
+        <v>0.1425242454564639</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1126614098193457</v>
+        <v>0.2170846594251472</v>
       </c>
       <c r="F24">
-        <v>1.221338018669854</v>
+        <v>2.10491761703318</v>
       </c>
       <c r="G24">
-        <v>0.0008102744700841462</v>
+        <v>0.002474250227531713</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4209851083960601</v>
+        <v>1.009965054162901</v>
       </c>
       <c r="J24">
-        <v>0.0971969378482882</v>
+        <v>0.07459601344045552</v>
       </c>
       <c r="K24">
-        <v>1.088634888662455</v>
+        <v>0.3815151725561918</v>
       </c>
       <c r="L24">
-        <v>0.3868035063798345</v>
+        <v>0.4647448437439863</v>
       </c>
       <c r="M24">
-        <v>0.3624093792202103</v>
+        <v>0.2629587066804291</v>
       </c>
       <c r="N24">
-        <v>0.8588623648405047</v>
+        <v>2.033075746383667</v>
       </c>
       <c r="O24">
-        <v>1.753784624103872</v>
+        <v>3.808175995327048</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.102636576141862</v>
+        <v>0.6065651612016438</v>
       </c>
       <c r="C25">
-        <v>0.08937341618880623</v>
+        <v>0.1411506279270327</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1031441879404333</v>
+        <v>0.2162303768465215</v>
       </c>
       <c r="F25">
-        <v>1.124841374272137</v>
+        <v>2.101295476114259</v>
       </c>
       <c r="G25">
-        <v>0.0008161131352804116</v>
+        <v>0.002477918982910064</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4243007971251593</v>
+        <v>1.021050016377664</v>
       </c>
       <c r="J25">
-        <v>0.08682180634092873</v>
+        <v>0.07100543503205614</v>
       </c>
       <c r="K25">
-        <v>0.8921111707763316</v>
+        <v>0.3236105103763975</v>
       </c>
       <c r="L25">
-        <v>0.3323003641772857</v>
+        <v>0.4535385347643768</v>
       </c>
       <c r="M25">
-        <v>0.3005710150356293</v>
+        <v>0.2471425519417494</v>
       </c>
       <c r="N25">
-        <v>0.9333931012787033</v>
+        <v>2.065232390331913</v>
       </c>
       <c r="O25">
-        <v>1.722217017945724</v>
+        <v>3.84116056088169</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_167/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_167/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5576086467745256</v>
+        <v>0.9261602450194175</v>
       </c>
       <c r="C2">
-        <v>0.1401259805752488</v>
+        <v>0.08627152529147253</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2158203427384855</v>
+        <v>0.0964572989686765</v>
       </c>
       <c r="F2">
-        <v>2.101583851666291</v>
+        <v>1.059437643699638</v>
       </c>
       <c r="G2">
-        <v>0.002480846746097597</v>
+        <v>0.0008206177186279271</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.030516627725682</v>
+        <v>0.4291936031153512</v>
       </c>
       <c r="J2">
-        <v>0.06832021374958686</v>
+        <v>0.07915526096576286</v>
       </c>
       <c r="K2">
-        <v>0.2810406009705275</v>
+        <v>0.7480357555977548</v>
       </c>
       <c r="L2">
-        <v>0.4458249572567325</v>
+        <v>0.2930806603031471</v>
       </c>
       <c r="M2">
-        <v>0.2357755197726483</v>
+        <v>0.2555728195812428</v>
       </c>
       <c r="N2">
-        <v>2.090795578000424</v>
+        <v>0.9920091048632331</v>
       </c>
       <c r="O2">
-        <v>3.870837430261133</v>
+        <v>1.709690586448829</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.524764461952401</v>
+        <v>0.8071165414659163</v>
       </c>
       <c r="C3">
-        <v>0.1394233556882121</v>
+        <v>0.08417751869475865</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2156799295414693</v>
+        <v>0.09210957566994082</v>
       </c>
       <c r="F3">
-        <v>2.103628181986785</v>
+        <v>1.018300059500369</v>
       </c>
       <c r="G3">
-        <v>0.002482973314430057</v>
+        <v>0.0008238043502272874</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.037747933989987</v>
+        <v>0.4339274728405904</v>
       </c>
       <c r="J3">
-        <v>0.06647462156653106</v>
+        <v>0.07393691699621741</v>
       </c>
       <c r="K3">
-        <v>0.2522360085775546</v>
+        <v>0.6506080013288624</v>
       </c>
       <c r="L3">
-        <v>0.4409351929450196</v>
+        <v>0.2669965682807316</v>
       </c>
       <c r="M3">
-        <v>0.2282478055067294</v>
+        <v>0.2253456426169969</v>
       </c>
       <c r="N3">
-        <v>2.109299138222191</v>
+        <v>1.033957471923336</v>
       </c>
       <c r="O3">
-        <v>3.894317930062471</v>
+        <v>1.707324032455162</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5047659655288896</v>
+        <v>0.7342316510152216</v>
       </c>
       <c r="C4">
-        <v>0.1389879205728768</v>
+        <v>0.0828940899305195</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.215661839952233</v>
+        <v>0.08952592960918793</v>
       </c>
       <c r="F4">
-        <v>2.105797412865122</v>
+        <v>0.9945099649659568</v>
       </c>
       <c r="G4">
-        <v>0.002484349641552898</v>
+        <v>0.000825828705324476</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.042590932208917</v>
+        <v>0.4374989497838939</v>
       </c>
       <c r="J4">
-        <v>0.06532875163213703</v>
+        <v>0.0707199702141672</v>
       </c>
       <c r="K4">
-        <v>0.2345743598783798</v>
+        <v>0.5908394262064576</v>
       </c>
       <c r="L4">
-        <v>0.4381004256602097</v>
+        <v>0.251203017327839</v>
       </c>
       <c r="M4">
-        <v>0.2237133670508449</v>
+        <v>0.2068990696193325</v>
       </c>
       <c r="N4">
-        <v>2.121242743642517</v>
+        <v>1.060776719989335</v>
       </c>
       <c r="O4">
-        <v>3.91039846181512</v>
+        <v>1.708716934862707</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.496659307014653</v>
+        <v>0.7045741480357606</v>
       </c>
       <c r="C5">
-        <v>0.1388094739337262</v>
+        <v>0.08237143047726647</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2156716530205323</v>
+        <v>0.08849399270924252</v>
       </c>
       <c r="F5">
-        <v>2.106911599114866</v>
+        <v>0.9851701221045062</v>
       </c>
       <c r="G5">
-        <v>0.00248492831153518</v>
+        <v>0.0008266709235132952</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.044665907256444</v>
+        <v>0.4391166375071407</v>
       </c>
       <c r="J5">
-        <v>0.06485863060783004</v>
+        <v>0.06940558569717226</v>
       </c>
       <c r="K5">
-        <v>0.2273837102862615</v>
+        <v>0.5664894400017602</v>
       </c>
       <c r="L5">
-        <v>0.4369875523157702</v>
+        <v>0.2448198666719037</v>
       </c>
       <c r="M5">
-        <v>0.221887753753137</v>
+        <v>0.1994077628005471</v>
       </c>
       <c r="N5">
-        <v>2.126256364782337</v>
+        <v>1.071968054292701</v>
       </c>
       <c r="O5">
-        <v>3.917370019741384</v>
+        <v>1.709975619133544</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4953158123266519</v>
+        <v>0.6996519340142413</v>
       </c>
       <c r="C6">
-        <v>0.1387797826359574</v>
+        <v>0.08228465788182859</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2156743219814317</v>
+        <v>0.08832388471534713</v>
       </c>
       <c r="F6">
-        <v>2.107110523807918</v>
+        <v>0.9836402668929978</v>
       </c>
       <c r="G6">
-        <v>0.002485025476326727</v>
+        <v>0.0008268118235655344</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.045016583076638</v>
+        <v>0.4393949152788998</v>
       </c>
       <c r="J6">
-        <v>0.06478037639372403</v>
+        <v>0.06918711841044356</v>
       </c>
       <c r="K6">
-        <v>0.2261901214485675</v>
+        <v>0.56244631999337</v>
       </c>
       <c r="L6">
-        <v>0.4368053217295511</v>
+        <v>0.243763055612348</v>
       </c>
       <c r="M6">
-        <v>0.2215859585293423</v>
+        <v>0.1981653229061919</v>
       </c>
       <c r="N6">
-        <v>2.127097723375996</v>
+        <v>1.073842066181494</v>
       </c>
       <c r="O6">
-        <v>3.918552934485419</v>
+        <v>1.71022566284978</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5046564617648244</v>
+        <v>0.7338315139046756</v>
       </c>
       <c r="C7">
-        <v>0.1389855180318023</v>
+        <v>0.08288704004486291</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2156619026422355</v>
+        <v>0.08951192871342428</v>
       </c>
       <c r="F7">
-        <v>2.105811506575058</v>
+        <v>0.9943825866179878</v>
       </c>
       <c r="G7">
-        <v>0.00248435737354657</v>
+        <v>0.0008258399935743134</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.042618505307754</v>
+        <v>0.437520115739968</v>
       </c>
       <c r="J7">
-        <v>0.06532242422886014</v>
+        <v>0.07070225822673137</v>
       </c>
       <c r="K7">
-        <v>0.234477356869732</v>
+        <v>0.5905110176815072</v>
       </c>
       <c r="L7">
-        <v>0.4380852454793569</v>
+        <v>0.251116721834137</v>
       </c>
       <c r="M7">
-        <v>0.2236886560402311</v>
+        <v>0.2067979380337661</v>
       </c>
       <c r="N7">
-        <v>2.121309765804188</v>
+        <v>1.060926594709369</v>
       </c>
       <c r="O7">
-        <v>3.910490787303502</v>
+        <v>1.708731143518392</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5462494924468331</v>
+        <v>0.8850652900465832</v>
       </c>
       <c r="C8">
-        <v>0.1398845544080238</v>
+        <v>0.08554889036816959</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2157578211045568</v>
+        <v>0.09493996525321435</v>
       </c>
       <c r="F8">
-        <v>2.102099255172988</v>
+        <v>1.044939697183352</v>
       </c>
       <c r="G8">
-        <v>0.002481565363662961</v>
+        <v>0.0008217025553201224</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.032926404222721</v>
+        <v>0.4306848342174625</v>
       </c>
       <c r="J8">
-        <v>0.06768649212877165</v>
+        <v>0.07735851018772522</v>
       </c>
       <c r="K8">
-        <v>0.2711039610790351</v>
+        <v>0.7144274225969411</v>
       </c>
       <c r="L8">
-        <v>0.4441042941278255</v>
+        <v>0.2840388823331494</v>
       </c>
       <c r="M8">
-        <v>0.2331618843857406</v>
+        <v>0.2451254141135522</v>
       </c>
       <c r="N8">
-        <v>2.097054783464357</v>
+        <v>1.006249270412493</v>
       </c>
       <c r="O8">
-        <v>3.878588463447329</v>
+        <v>1.708268785463531</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6291215714020382</v>
+        <v>1.183718190876817</v>
       </c>
       <c r="C9">
-        <v>0.1416153998231309</v>
+        <v>0.09079848458961948</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2164842427352234</v>
+        <v>0.1062980672675415</v>
       </c>
       <c r="F9">
-        <v>2.10205720785693</v>
+        <v>1.156422820258868</v>
       </c>
       <c r="G9">
-        <v>0.002476648124384232</v>
+        <v>0.0008141152026175671</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.017113571594287</v>
+        <v>0.4227876481515587</v>
       </c>
       <c r="J9">
-        <v>0.07222138362499209</v>
+        <v>0.09032016851060831</v>
       </c>
       <c r="K9">
-        <v>0.3431062973053258</v>
+        <v>0.9581889418190315</v>
       </c>
       <c r="L9">
-        <v>0.4572302069445158</v>
+        <v>0.3505082654795331</v>
       </c>
       <c r="M9">
-        <v>0.2524272946668447</v>
+        <v>0.3213096239357114</v>
       </c>
       <c r="N9">
-        <v>2.054107661792014</v>
+        <v>0.9076913192143512</v>
       </c>
       <c r="O9">
-        <v>3.829213029403292</v>
+        <v>1.731107746710393</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6907787100357439</v>
+        <v>1.405061378945533</v>
       </c>
       <c r="C10">
-        <v>0.1428672103891699</v>
+        <v>0.09469112350868869</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2173433965643206</v>
+        <v>0.1151259193238232</v>
       </c>
       <c r="F10">
-        <v>2.106421786848244</v>
+        <v>1.246864643031458</v>
       </c>
       <c r="G10">
-        <v>0.002473372252285889</v>
+        <v>0.0008088448135077266</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.007437576894006</v>
+        <v>0.4206801188393001</v>
       </c>
       <c r="J10">
-        <v>0.07549115100110271</v>
+        <v>0.09980395996472424</v>
       </c>
       <c r="K10">
-        <v>0.3960975559208464</v>
+        <v>1.138270268665849</v>
       </c>
       <c r="L10">
-        <v>0.4676720957807561</v>
+        <v>0.4007251880564411</v>
       </c>
       <c r="M10">
-        <v>0.266993893269003</v>
+        <v>0.3780981788264981</v>
       </c>
       <c r="N10">
-        <v>2.025362697930817</v>
+        <v>0.8408955913572562</v>
       </c>
       <c r="O10">
-        <v>3.800958330527322</v>
+        <v>1.764067285352809</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7189903017925587</v>
+        <v>1.506328818272578</v>
       </c>
       <c r="C11">
-        <v>0.1434323409223381</v>
+        <v>0.09647408938819524</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.217804354553369</v>
+        <v>0.1192580433651855</v>
       </c>
       <c r="F11">
-        <v>2.109358397503613</v>
+        <v>1.290099656436325</v>
       </c>
       <c r="G11">
-        <v>0.002471954414296605</v>
+        <v>0.0008065093286425916</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.003456289743909</v>
+        <v>0.420602696506041</v>
       </c>
       <c r="J11">
-        <v>0.07696510957072888</v>
+        <v>0.1041137267948145</v>
       </c>
       <c r="K11">
-        <v>0.4202210982752206</v>
+        <v>1.220534128517926</v>
       </c>
       <c r="L11">
-        <v>0.4725941069750519</v>
+        <v>0.4239215391631603</v>
       </c>
       <c r="M11">
-        <v>0.273708670113848</v>
+        <v>0.4041553284285797</v>
       </c>
       <c r="N11">
-        <v>2.012894329930683</v>
+        <v>0.8118057226561444</v>
       </c>
       <c r="O11">
-        <v>3.789842994889682</v>
+        <v>1.78297524876254</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7296962156747497</v>
+        <v>1.544772520782772</v>
       </c>
       <c r="C12">
-        <v>0.1436457131749904</v>
+        <v>0.09715139475231638</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2179889397021881</v>
+        <v>0.120840461100471</v>
       </c>
       <c r="F12">
-        <v>2.110606856182173</v>
+        <v>1.306793369300038</v>
       </c>
       <c r="G12">
-        <v>0.002471427870641427</v>
+        <v>0.0008056335321469944</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.0020090469853</v>
+        <v>0.4207071297499887</v>
       </c>
       <c r="J12">
-        <v>0.07752130797511825</v>
+        <v>0.1057453974552445</v>
       </c>
       <c r="K12">
-        <v>0.4293581789051473</v>
+        <v>1.251745577748778</v>
       </c>
       <c r="L12">
-        <v>0.4744825042968301</v>
+        <v>0.4327605042570042</v>
       </c>
       <c r="M12">
-        <v>0.2762639273348313</v>
+        <v>0.4140585758369042</v>
       </c>
       <c r="N12">
-        <v>2.008260227103541</v>
+        <v>0.8009835615813721</v>
       </c>
       <c r="O12">
-        <v>3.785883526621092</v>
+        <v>1.79073363723478</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7273895029633763</v>
+        <v>1.536488500722697</v>
       </c>
       <c r="C13">
-        <v>0.1435997878167754</v>
+        <v>0.0970054235097777</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2179487407360661</v>
+        <v>0.1204988574566777</v>
       </c>
       <c r="F13">
-        <v>2.110331916101785</v>
+        <v>1.303183436414983</v>
       </c>
       <c r="G13">
-        <v>0.002471540811248304</v>
+        <v>0.0008058217733172446</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.002318052026407</v>
+        <v>0.4206785732011298</v>
       </c>
       <c r="J13">
-        <v>0.07740160808793206</v>
+        <v>0.1053939984167442</v>
       </c>
       <c r="K13">
-        <v>0.4273902633782711</v>
+        <v>1.245020794994701</v>
       </c>
       <c r="L13">
-        <v>0.4740747157662923</v>
+        <v>0.4308543565373952</v>
       </c>
       <c r="M13">
-        <v>0.2757130532865304</v>
+        <v>0.4119240714619181</v>
       </c>
       <c r="N13">
-        <v>2.009254377196978</v>
+        <v>0.8033055805637108</v>
       </c>
       <c r="O13">
-        <v>3.786725168640913</v>
+        <v>1.789035529352958</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7198706309526983</v>
+        <v>1.509489605412398</v>
       </c>
       <c r="C14">
-        <v>0.1434499078697868</v>
+        <v>0.09652976660657231</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.217819339767491</v>
+        <v>0.119387870017686</v>
       </c>
       <c r="F14">
-        <v>2.10945837671035</v>
+        <v>1.291466491191073</v>
       </c>
       <c r="G14">
-        <v>0.002471910887893777</v>
+        <v>0.000806437105825974</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.003336014389124</v>
+        <v>0.4206085659833505</v>
       </c>
       <c r="J14">
-        <v>0.07701090769903374</v>
+        <v>0.1042479704722439</v>
       </c>
       <c r="K14">
-        <v>0.4209727738363824</v>
+        <v>1.223100650088384</v>
       </c>
       <c r="L14">
-        <v>0.4727489758419807</v>
+        <v>0.4246475978875424</v>
       </c>
       <c r="M14">
-        <v>0.2739186428870397</v>
+        <v>0.4049693310401281</v>
       </c>
       <c r="N14">
-        <v>2.012511327985114</v>
+        <v>0.8109114553279095</v>
       </c>
       <c r="O14">
-        <v>3.7895122446767</v>
+        <v>1.783601333219224</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7152680524962705</v>
+        <v>1.492964891944297</v>
       </c>
       <c r="C15">
-        <v>0.143358019722271</v>
+        <v>0.09623870298941029</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2177413826004795</v>
+        <v>0.1187096886622356</v>
       </c>
       <c r="F15">
-        <v>2.108941065302432</v>
+        <v>1.284332033284741</v>
       </c>
       <c r="G15">
-        <v>0.002472138918436828</v>
+        <v>0.0008068151251448991</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.003967407633152</v>
+        <v>0.4205833185413752</v>
       </c>
       <c r="J15">
-        <v>0.0767713368792613</v>
+        <v>0.1035459594675174</v>
       </c>
       <c r="K15">
-        <v>0.4170421240765165</v>
+        <v>1.209682053044872</v>
       </c>
       <c r="L15">
-        <v>0.4719401119484274</v>
+        <v>0.4208530760823237</v>
       </c>
       <c r="M15">
-        <v>0.2728211391750435</v>
+        <v>0.4007141529373754</v>
       </c>
       <c r="N15">
-        <v>2.014517685812045</v>
+        <v>0.8155956990038762</v>
       </c>
       <c r="O15">
-        <v>3.791251916409379</v>
+        <v>1.780351744244257</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6889382447231753</v>
+        <v>1.398456014230788</v>
       </c>
       <c r="C16">
-        <v>0.1428301900272402</v>
+        <v>0.09457487962720279</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2173146783908457</v>
+        <v>0.1148582953132795</v>
       </c>
       <c r="F16">
-        <v>2.106248982360114</v>
+        <v>1.244082977718648</v>
       </c>
       <c r="G16">
-        <v>0.002473466363575595</v>
+        <v>0.0008089986642986548</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.007706216788304</v>
+        <v>0.4207035032818851</v>
       </c>
       <c r="J16">
-        <v>0.07539455148375396</v>
+        <v>0.09952224186008607</v>
       </c>
       <c r="K16">
-        <v>0.3945213357115165</v>
+        <v>1.132901930302097</v>
       </c>
       <c r="L16">
-        <v>0.4673538747579187</v>
+        <v>0.399216707964186</v>
       </c>
       <c r="M16">
-        <v>0.2665568286640294</v>
+        <v>0.3764001041740244</v>
       </c>
       <c r="N16">
-        <v>2.02618976571638</v>
+        <v>0.8428233641889005</v>
       </c>
       <c r="O16">
-        <v>3.801719694082891</v>
+        <v>1.762913356239039</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6728271206287957</v>
+        <v>1.340634656192293</v>
       </c>
       <c r="C17">
-        <v>0.1425052699118439</v>
+        <v>0.09355756041728824</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2170708317225056</v>
+        <v>0.1125260338295497</v>
       </c>
       <c r="F17">
-        <v>2.104840841619904</v>
+        <v>1.219941746906443</v>
       </c>
       <c r="G17">
-        <v>0.002474299211515207</v>
+        <v>0.0008103538623149831</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.010107476219396</v>
+        <v>0.4210078201465137</v>
       </c>
       <c r="J17">
-        <v>0.07454647277822346</v>
+        <v>0.09705288584082439</v>
       </c>
       <c r="K17">
-        <v>0.3807096977678555</v>
+        <v>1.085895119711125</v>
       </c>
       <c r="L17">
-        <v>0.4645842728560439</v>
+        <v>0.3860367610565447</v>
       </c>
       <c r="M17">
-        <v>0.2627363733977859</v>
+        <v>0.3615441553608321</v>
       </c>
       <c r="N17">
-        <v>2.033505886874179</v>
+        <v>0.859863541499319</v>
       </c>
       <c r="O17">
-        <v>3.808586278846775</v>
+        <v>1.753242611800005</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6635758551883839</v>
+        <v>1.307430857325556</v>
       </c>
       <c r="C18">
-        <v>0.1423179779334376</v>
+        <v>0.09297354733774199</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2169371812242709</v>
+        <v>0.1111954644928339</v>
       </c>
       <c r="F18">
-        <v>2.104120462954995</v>
+        <v>1.206252005479257</v>
       </c>
       <c r="G18">
-        <v>0.002474785058267035</v>
+        <v>0.000811139196186934</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.011528188316152</v>
+        <v>0.4212653630140899</v>
       </c>
       <c r="J18">
-        <v>0.07405741321568371</v>
+        <v>0.09563213935269488</v>
       </c>
       <c r="K18">
-        <v>0.3727672913364302</v>
+        <v>1.05888975346241</v>
       </c>
       <c r="L18">
-        <v>0.4630074664230932</v>
+        <v>0.3784889010977395</v>
       </c>
       <c r="M18">
-        <v>0.2605472765564798</v>
+        <v>0.3530202257213091</v>
       </c>
       <c r="N18">
-        <v>2.037771141489469</v>
+        <v>0.8697861159540343</v>
       </c>
       <c r="O18">
-        <v>3.81269934721962</v>
+        <v>1.7480464585216</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6604462068303292</v>
+        <v>1.296197433831054</v>
       </c>
       <c r="C19">
-        <v>0.1422544945297872</v>
+        <v>0.0927759921416893</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.216893065275606</v>
+        <v>0.1107467981520323</v>
       </c>
       <c r="F19">
-        <v>2.103891945341985</v>
+        <v>1.201649889326433</v>
       </c>
       <c r="G19">
-        <v>0.002474950729688373</v>
+        <v>0.0008114061126111866</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.012016015384919</v>
+        <v>0.4213665262677964</v>
       </c>
       <c r="J19">
-        <v>0.07389160902829417</v>
+        <v>0.0951510149586241</v>
       </c>
       <c r="K19">
-        <v>0.3700784333379943</v>
+        <v>1.049751339538915</v>
       </c>
       <c r="L19">
-        <v>0.462476374108121</v>
+        <v>0.3759388477200787</v>
       </c>
       <c r="M19">
-        <v>0.259807522068968</v>
+        <v>0.3501376336116877</v>
       </c>
       <c r="N19">
-        <v>2.039225110597546</v>
+        <v>0.8731663870082027</v>
       </c>
       <c r="O19">
-        <v>3.81412006549823</v>
+        <v>1.746348981124243</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6745405857776348</v>
+        <v>1.346784208910037</v>
       </c>
       <c r="C20">
-        <v>0.1425399003478987</v>
+        <v>0.0936657369949927</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2170961065506098</v>
+        <v>0.1127731736998889</v>
       </c>
       <c r="F20">
-        <v>2.104981475361413</v>
+        <v>1.222491226873373</v>
       </c>
       <c r="G20">
-        <v>0.002474209848459994</v>
+        <v>0.000810208994881545</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.009847763053457</v>
+        <v>0.4209668363240979</v>
       </c>
       <c r="J20">
-        <v>0.07463688349090347</v>
+        <v>0.09731579626026132</v>
       </c>
       <c r="K20">
-        <v>0.3821797997415786</v>
+        <v>1.09089571987775</v>
       </c>
       <c r="L20">
-        <v>0.4648774269038114</v>
+        <v>0.3874363536504859</v>
       </c>
       <c r="M20">
-        <v>0.263142206835596</v>
+        <v>0.3631234150448392</v>
       </c>
       <c r="N20">
-        <v>2.03272115182001</v>
+        <v>0.8580369583749299</v>
       </c>
       <c r="O20">
-        <v>3.807838389885262</v>
+        <v>1.754233928556346</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.722078492875994</v>
+        <v>1.517417125010837</v>
       </c>
       <c r="C21">
-        <v>0.1434939484211739</v>
+        <v>0.09666941740731261</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.217857076173658</v>
+        <v>0.1197137065072447</v>
       </c>
       <c r="F21">
-        <v>2.109711256543164</v>
+        <v>1.294899144508875</v>
       </c>
       <c r="G21">
-        <v>0.002471801906518887</v>
+        <v>0.0008062561369500121</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.003035375868784</v>
+        <v>0.4206254407585845</v>
       </c>
       <c r="J21">
-        <v>0.0771257191662329</v>
+        <v>0.104584593568454</v>
       </c>
       <c r="K21">
-        <v>0.4228576953205163</v>
+        <v>1.229537415152322</v>
       </c>
       <c r="L21">
-        <v>0.4731377133161487</v>
+        <v>0.4264691445420965</v>
       </c>
       <c r="M21">
-        <v>0.274445366517611</v>
+        <v>0.4070110991961329</v>
       </c>
       <c r="N21">
-        <v>2.011552310727732</v>
+        <v>0.8086721133766668</v>
       </c>
       <c r="O21">
-        <v>3.788686838836725</v>
+        <v>1.785180955698166</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.753279809234698</v>
+        <v>1.6295013214515</v>
       </c>
       <c r="C22">
-        <v>0.1441137954980505</v>
+        <v>0.09864514290485005</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.218412853636206</v>
+        <v>0.1243532322966772</v>
       </c>
       <c r="F22">
-        <v>2.113597487795673</v>
+        <v>1.344106642886175</v>
       </c>
       <c r="G22">
-        <v>0.002470288546484109</v>
+        <v>0.0008037226861446051</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9989350230758944</v>
+        <v>0.4211854935480304</v>
       </c>
       <c r="J22">
-        <v>0.0787408966502241</v>
+        <v>0.1093333137817112</v>
       </c>
       <c r="K22">
-        <v>0.4494545832162089</v>
+        <v>1.320502362734373</v>
       </c>
       <c r="L22">
-        <v>0.4786792303147678</v>
+        <v>0.4523021767595594</v>
       </c>
       <c r="M22">
-        <v>0.281905505438516</v>
+        <v>0.4359058409419845</v>
       </c>
       <c r="N22">
-        <v>1.99822666534058</v>
+        <v>0.7775410931139994</v>
       </c>
       <c r="O22">
-        <v>3.777625341164565</v>
+        <v>1.808912355324992</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7366151853966585</v>
+        <v>1.569623620406048</v>
       </c>
       <c r="C23">
-        <v>0.1437833108486188</v>
+        <v>0.09758936823666176</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2181108951600805</v>
+        <v>0.1218672329750952</v>
       </c>
       <c r="F23">
-        <v>2.111450700512052</v>
+        <v>1.317664071762451</v>
       </c>
       <c r="G23">
-        <v>0.002471090746758872</v>
+        <v>0.0008050703747984001</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.001091277621988</v>
+        <v>0.4208124901442716</v>
       </c>
       <c r="J23">
-        <v>0.07787989767514603</v>
+        <v>0.1067989004360825</v>
       </c>
       <c r="K23">
-        <v>0.4352584355517308</v>
+        <v>1.271916569537126</v>
       </c>
       <c r="L23">
-        <v>0.4757086009489058</v>
+        <v>0.4384835590898604</v>
       </c>
       <c r="M23">
-        <v>0.2779172836661559</v>
+        <v>0.4204634930330897</v>
       </c>
       <c r="N23">
-        <v>2.005292204770345</v>
+        <v>0.7940502558286155</v>
       </c>
       <c r="O23">
-        <v>3.783396002077012</v>
+        <v>1.7959133883042</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6737658931359078</v>
+        <v>1.34400387726572</v>
       </c>
       <c r="C24">
-        <v>0.1425242454564639</v>
+        <v>0.09361682772224356</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2170846594251472</v>
+        <v>0.112661409819367</v>
       </c>
       <c r="F24">
-        <v>2.10491761703318</v>
+        <v>1.221338018669869</v>
       </c>
       <c r="G24">
-        <v>0.002474250227531713</v>
+        <v>0.0008102744700843045</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.009965054162901</v>
+        <v>0.4209851083960601</v>
       </c>
       <c r="J24">
-        <v>0.07459601344045552</v>
+        <v>0.09719693784843741</v>
       </c>
       <c r="K24">
-        <v>0.3815151725561918</v>
+        <v>1.088634888662568</v>
       </c>
       <c r="L24">
-        <v>0.4647448437439863</v>
+        <v>0.3868035063798061</v>
       </c>
       <c r="M24">
-        <v>0.2629587066804291</v>
+        <v>0.3624093792202103</v>
       </c>
       <c r="N24">
-        <v>2.033075746383667</v>
+        <v>0.8588623648405136</v>
       </c>
       <c r="O24">
-        <v>3.808175995327048</v>
+        <v>1.753784624103872</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6065651612016438</v>
+        <v>1.102636576141919</v>
       </c>
       <c r="C25">
-        <v>0.1411506279270327</v>
+        <v>0.08937341618896255</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2162303768465215</v>
+        <v>0.1031441879404404</v>
       </c>
       <c r="F25">
-        <v>2.101295476114259</v>
+        <v>1.124841374272151</v>
       </c>
       <c r="G25">
-        <v>0.002477918982910064</v>
+        <v>0.0008161131352795398</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.021050016377664</v>
+        <v>0.4243007971251558</v>
       </c>
       <c r="J25">
-        <v>0.07100543503205614</v>
+        <v>0.08682180634091452</v>
       </c>
       <c r="K25">
-        <v>0.3236105103763975</v>
+        <v>0.8921111707764169</v>
       </c>
       <c r="L25">
-        <v>0.4535385347643768</v>
+        <v>0.3323003641773283</v>
       </c>
       <c r="M25">
-        <v>0.2471425519417494</v>
+        <v>0.3005710150356293</v>
       </c>
       <c r="N25">
-        <v>2.065232390331913</v>
+        <v>0.933393101278698</v>
       </c>
       <c r="O25">
-        <v>3.84116056088169</v>
+        <v>1.722217017945695</v>
       </c>
     </row>
   </sheetData>
